--- a/scan_sort/plots/Scan Comparison.xlsx
+++ b/scan_sort/plots/Scan Comparison.xlsx
@@ -14,7 +14,6 @@
   <externalReferences>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
@@ -557,11 +556,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="38306944"/>
-        <c:axId val="38308480"/>
+        <c:axId val="39251968"/>
+        <c:axId val="39253504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="38306944"/>
+        <c:axId val="39251968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -570,7 +569,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38308480"/>
+        <c:crossAx val="39253504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -578,18 +577,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="38308480"/>
+        <c:axId val="39253504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>keys/sec</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38306944"/>
+        <c:crossAx val="39251968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1000000000"/>
@@ -1029,11 +1047,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="98487296"/>
-        <c:axId val="100008704"/>
+        <c:axId val="80093568"/>
+        <c:axId val="80095104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="98487296"/>
+        <c:axId val="80093568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1042,7 +1060,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100008704"/>
+        <c:crossAx val="80095104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1050,18 +1068,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100008704"/>
+        <c:axId val="80095104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>keys/sec</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98487296"/>
+        <c:crossAx val="80093568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1000000000"/>
@@ -1267,11 +1304,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="38326272"/>
-        <c:axId val="72356992"/>
+        <c:axId val="80120064"/>
+        <c:axId val="82710528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="38326272"/>
+        <c:axId val="80120064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1280,7 +1317,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72356992"/>
+        <c:crossAx val="82710528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1288,7 +1325,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72356992"/>
+        <c:axId val="82710528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1299,7 +1336,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38326272"/>
+        <c:crossAx val="80120064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3269,259 +3306,6 @@
           </cell>
         </row>
       </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sort Int"/>
-      <sheetName val="Sort Long"/>
-      <sheetName val="Int-Long"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Min</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>Max</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>Average</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Xeon Phi + VexCL</v>
-          </cell>
-          <cell r="B2">
-            <v>28026200</v>
-          </cell>
-          <cell r="C2">
-            <v>29954300</v>
-          </cell>
-          <cell r="D2">
-            <v>28963737.5</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Xeon Phi + Thrust</v>
-          </cell>
-          <cell r="B3">
-            <v>9595950</v>
-          </cell>
-          <cell r="C3">
-            <v>10944200</v>
-          </cell>
-          <cell r="D3">
-            <v>10326507.5</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Xeon E5-2690v2 + VeXCL</v>
-          </cell>
-          <cell r="B4">
-            <v>30206900</v>
-          </cell>
-          <cell r="C4">
-            <v>32581000</v>
-          </cell>
-          <cell r="D4">
-            <v>31235250</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Xeon E5-2690v2 + Thrust</v>
-          </cell>
-          <cell r="B5">
-            <v>92436600</v>
-          </cell>
-          <cell r="C5">
-            <v>105597000</v>
-          </cell>
-          <cell r="D5">
-            <v>98906800</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>i7-5960X + VeXCL</v>
-          </cell>
-          <cell r="B6">
-            <v>42633500</v>
-          </cell>
-          <cell r="C6">
-            <v>48531000</v>
-          </cell>
-          <cell r="D6">
-            <v>46166518.75</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>i7-5960X + Thrust</v>
-          </cell>
-          <cell r="B7">
-            <v>107773000</v>
-          </cell>
-          <cell r="C7">
-            <v>113234000</v>
-          </cell>
-          <cell r="D7">
-            <v>110695625</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>Opteron + VeXCL</v>
-          </cell>
-          <cell r="B8">
-            <v>7253220</v>
-          </cell>
-          <cell r="C8">
-            <v>10746100</v>
-          </cell>
-          <cell r="D8">
-            <v>8639546.875</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>Opteron + Thrust</v>
-          </cell>
-          <cell r="B9">
-            <v>41289800</v>
-          </cell>
-          <cell r="C9">
-            <v>48694700</v>
-          </cell>
-          <cell r="D9">
-            <v>45133300</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>AMD APU + VeXCL</v>
-          </cell>
-          <cell r="B10">
-            <v>122344000</v>
-          </cell>
-          <cell r="C10">
-            <v>136988000</v>
-          </cell>
-          <cell r="D10">
-            <v>129011875</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>GTX 770 + VeXCL</v>
-          </cell>
-          <cell r="B11">
-            <v>484696000</v>
-          </cell>
-          <cell r="C11">
-            <v>526271000</v>
-          </cell>
-          <cell r="D11">
-            <v>503970687.5</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>GTX770 + VeXCL CUDA</v>
-          </cell>
-          <cell r="B12">
-            <v>526757000</v>
-          </cell>
-          <cell r="C12">
-            <v>557915000</v>
-          </cell>
-          <cell r="D12">
-            <v>542382937.5</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>K40c + VeXCL CUDA</v>
-          </cell>
-          <cell r="B13">
-            <v>578732000</v>
-          </cell>
-          <cell r="C13">
-            <v>622445000</v>
-          </cell>
-          <cell r="D13">
-            <v>602867750</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>K40c + Thrust</v>
-          </cell>
-          <cell r="B14">
-            <v>743093000</v>
-          </cell>
-          <cell r="C14">
-            <v>788568000</v>
-          </cell>
-          <cell r="D14">
-            <v>773118625</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>K20Xm + VeXCL</v>
-          </cell>
-          <cell r="B15">
-            <v>524285000</v>
-          </cell>
-          <cell r="C15">
-            <v>573685000</v>
-          </cell>
-          <cell r="D15">
-            <v>546839812.5</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>K20Xm + VeXCL CUDA</v>
-          </cell>
-          <cell r="B16">
-            <v>555488000</v>
-          </cell>
-          <cell r="C16">
-            <v>592420000</v>
-          </cell>
-          <cell r="D16">
-            <v>576097437.5</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>K20Xm + Thrust</v>
-          </cell>
-          <cell r="B17">
-            <v>662544000</v>
-          </cell>
-          <cell r="C17">
-            <v>723800000</v>
-          </cell>
-          <cell r="D17">
-            <v>699113187.5</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3817,7 +3601,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4122,7 +3906,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
